--- a/cfg/robotClientSys0.xlsx
+++ b/cfg/robotClientSys0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27C5B50E-1180-4C4A-AA5E-E25400A0D51A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A498EE0-050A-4F4C-AA7B-EA5B33A3AD8E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>RobotTaskCfgFile</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
     <t>../StressRobotcfg/robots0.csv</t>
   </si>
   <si>
@@ -42,6 +39,10 @@
   </si>
   <si>
     <t>LoginSvrPort</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.157.129</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +998,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1010,10 +1011,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1024,16 +1025,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>22001</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>13052</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/cfg/robotClientSys0.xlsx
+++ b/cfg/robotClientSys0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A498EE0-050A-4F4C-AA7B-EA5B33A3AD8E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B63F64B6-F0F1-4D96-AF5F-DC2E8E51EDDC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,6 @@
     <t>RobotTaskCfgFile</t>
   </si>
   <si>
-    <t>../StressRobotcfg/robots0.csv</t>
-  </si>
-  <si>
-    <t>../StressRobotcfg/robotTask0.csv</t>
-  </si>
-  <si>
     <t>LoginSvrAddr</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -43,6 +37,14 @@
   </si>
   <si>
     <t>192.168.157.129</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>./cfg/robots0.xlsx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>./cfg/robotTask0.xlsx</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -998,7 +1000,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1011,10 +1013,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1025,16 +1027,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>22001</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
